--- a/gpay.xlsx
+++ b/gpay.xlsx
@@ -562,10 +562,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Apr 8 2025</t>
@@ -854,10 +858,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Mar 26 2025</t>
@@ -924,10 +932,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Mar 26 2025</t>
@@ -994,10 +1006,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Mar 23 2025</t>
@@ -1067,7 +1083,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Mar 22 2025</t>
@@ -1171,10 +1191,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Mar 19 2025</t>
@@ -1276,8 +1300,16 @@
           <t>₹500.00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Mar 17 2025</t>
@@ -1492,10 +1524,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>Mar 14 2025</t>
@@ -1525,10 +1561,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Mar 14 2025</t>
@@ -1706,10 +1746,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Mar 11 2025</t>
@@ -1742,7 +1786,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Mar 11 2025</t>
@@ -1994,10 +2042,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>Mar 4 2025</t>
@@ -2027,10 +2079,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Mar 4 2025</t>
@@ -2097,10 +2153,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>Mar 2 2025</t>
@@ -2167,10 +2227,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>Mar 1 2025</t>
@@ -2198,8 +2262,16 @@
           <t>₹5000.00</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>Mar 1 2025</t>
@@ -2232,7 +2304,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>Feb 25 2025</t>
@@ -2376,7 +2452,11 @@
           <t>to Jio Prepaid</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Feb 22 2025</t>
@@ -2404,8 +2484,16 @@
           <t>₹300.00</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>Feb 22 2025</t>
@@ -2435,10 +2523,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Feb 22 2025</t>
@@ -2468,10 +2560,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>Feb 20 2025</t>
@@ -2499,8 +2595,16 @@
           <t>₹100.00</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>Feb 20 2025</t>
@@ -2530,10 +2634,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>Feb 20 2025</t>
@@ -2711,10 +2819,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>Feb 17 2025</t>
@@ -2744,10 +2856,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Feb 17 2025</t>
@@ -2775,8 +2891,16 @@
           <t>₹1800.00</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>Feb 17 2025</t>
@@ -2804,8 +2928,16 @@
           <t>₹267.00</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>Feb 17 2025</t>
@@ -3020,10 +3152,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>Feb 15 2025</t>
@@ -3051,8 +3187,16 @@
           <t>₹500.00</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Feb 15 2025</t>
@@ -3193,10 +3337,14 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXXXXXX00572</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXXXXXX00572</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>Feb 5 2025</t>
@@ -3337,10 +3485,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Jan 30 2025</t>
@@ -3370,10 +3522,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>Jan 30 2025</t>
@@ -3403,10 +3559,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Jan 30 2025</t>
@@ -3436,10 +3596,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Jan 29 2025</t>
@@ -3469,10 +3633,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Jan 29 2025</t>
@@ -3500,8 +3668,16 @@
           <t>₹40.00</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Jan 29 2025</t>
@@ -3531,10 +3707,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>Jan 28 2025</t>
@@ -3599,8 +3779,16 @@
           <t>₹50.00</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>Jan 27 2025</t>
@@ -3667,10 +3855,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>Jan 27 2025</t>
@@ -3700,10 +3892,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>Jan 24 2025</t>
@@ -3770,10 +3966,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXXXXXX00572</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXXXXXX00572</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>Jan 23 2025</t>
@@ -3806,7 +4006,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>Jan 23 2025</t>
@@ -3947,10 +4151,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>Jan 17 2025</t>
@@ -4052,8 +4260,16 @@
           <t>₹500.00</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>Jan 13 2025</t>
@@ -4268,10 +4484,14 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>Jan 9 2025</t>
@@ -4304,7 +4524,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>Jan 9 2025</t>
@@ -4334,10 +4558,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>Jan 9 2025</t>
@@ -4367,10 +4595,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>Jan 6 2025</t>
@@ -4400,10 +4632,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>Jan 6 2025</t>
@@ -4507,10 +4743,14 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>Jan 5 2025</t>
@@ -4540,10 +4780,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>Jan 5 2025</t>
@@ -4610,10 +4854,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr">
         <is>
           <t>Jan 5 2025</t>
@@ -4905,7 +5153,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>Jan 1 2025</t>
@@ -4972,10 +5224,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
           <t>Dec 31 2024</t>
@@ -5077,8 +5333,16 @@
           <t>₹300.00</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>Dec 31 2024</t>
@@ -5182,10 +5446,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>Dec 30 2024</t>
@@ -5289,10 +5557,14 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr">
         <is>
           <t>Dec 22 2024</t>
@@ -5399,7 +5671,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>Dec 16 2024</t>
@@ -5427,8 +5703,16 @@
           <t>₹1.00</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>Dec 16 2024</t>
@@ -5461,7 +5745,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>Dec 16 2024</t>
@@ -5494,7 +5782,11 @@
           <t>from Google</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>Dec 16 2024</t>
@@ -5522,8 +5814,16 @@
           <t>₹1.00</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>Dec 16 2024</t>
@@ -5553,10 +5853,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>Dec 15 2024</t>
@@ -5586,10 +5890,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
           <t>Dec 15 2024</t>
@@ -5619,10 +5927,14 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
           <t>Dec 15 2024</t>
@@ -5652,10 +5964,14 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
           <t>Dec 14 2024</t>
@@ -5759,10 +6075,14 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr">
         <is>
           <t>Dec 14 2024</t>
@@ -5866,10 +6186,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>Dec 14 2024</t>
@@ -6010,10 +6334,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>Dec 13 2024</t>
@@ -6043,10 +6371,14 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr">
         <is>
           <t>Dec 13 2024</t>
@@ -6224,10 +6556,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>Dec 13 2024</t>
@@ -6371,7 +6707,11 @@
           <t>to DMRC</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>Dec 13 2024</t>
@@ -6512,10 +6852,14 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>Dec 12 2024</t>
@@ -7544,10 +7888,14 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>Dec 9 2024</t>
@@ -7723,8 +8071,16 @@
           <t>₹500.00</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr">
         <is>
           <t>Dec 8 2024</t>
@@ -7752,8 +8108,16 @@
           <t>₹2000.00</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F208" t="inlineStr">
         <is>
           <t>Dec 8 2024</t>
@@ -7860,7 +8224,11 @@
           <t>to ABHIBUS COM</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F211" t="inlineStr">
         <is>
           <t>Dec 5 2024</t>
@@ -7925,8 +8293,16 @@
           <t>₹2000.00</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F213" t="inlineStr">
         <is>
           <t>Dec 4 2024</t>
@@ -8067,10 +8443,14 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F217" t="inlineStr">
         <is>
           <t>Dec 3 2024</t>
@@ -8135,8 +8515,16 @@
           <t>₹2000.00</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr">
         <is>
           <t>Dec 2 2024</t>
@@ -8166,10 +8554,14 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F220" t="inlineStr">
         <is>
           <t>Dec 1 2024</t>
@@ -8199,10 +8591,14 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F221" t="inlineStr">
         <is>
           <t>Dec 1 2024</t>
@@ -8230,8 +8626,16 @@
           <t>₹1001.00</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F222" t="inlineStr">
         <is>
           <t>Dec 1 2024</t>
@@ -8261,10 +8665,14 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F223" t="inlineStr">
         <is>
           <t>Nov 30 2024</t>
@@ -8294,10 +8702,14 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F224" t="inlineStr">
         <is>
           <t>Nov 30 2024</t>
@@ -8327,10 +8739,14 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr">
         <is>
           <t>Nov 30 2024</t>
@@ -8400,7 +8816,11 @@
           <t>to Jio Prepaid</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>Nov 30 2024</t>
@@ -8428,8 +8848,16 @@
           <t>₹15,000.00</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F228" t="inlineStr">
         <is>
           <t>Nov 30 2024</t>
@@ -8533,10 +8961,14 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F231" t="inlineStr">
         <is>
           <t>Nov 22 2024</t>
@@ -8566,10 +8998,14 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F232" t="inlineStr">
         <is>
           <t>Nov 21 2024</t>
@@ -8599,10 +9035,14 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F233" t="inlineStr">
         <is>
           <t>Nov 21 2024</t>
@@ -8706,10 +9146,14 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr">
         <is>
           <t>Nov 13 2024</t>
@@ -8739,10 +9183,14 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
           <t>Nov 9 2024</t>
@@ -8772,10 +9220,14 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F238" t="inlineStr">
         <is>
           <t>Nov 7 2024</t>
@@ -8805,10 +9257,14 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F239" t="inlineStr">
         <is>
           <t>Nov 7 2024</t>
@@ -8984,8 +9440,16 @@
           <t>₹1.00</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
           <t>Nov 6 2024</t>
@@ -9015,10 +9479,14 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F245" t="inlineStr">
         <is>
           <t>Nov 6 2024</t>
@@ -9051,7 +9519,11 @@
           <t>to RAJEEV MITTAL SO CHAMAN LAL</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>Nov 5 2024</t>
@@ -9081,10 +9553,14 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F247" t="inlineStr">
         <is>
           <t>Nov 4 2024</t>
@@ -9112,8 +9588,16 @@
           <t>₹2900.00</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
           <t>Oct 30 2024</t>
@@ -9254,10 +9738,14 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F252" t="inlineStr">
         <is>
           <t>Oct 24 2024</t>
@@ -9285,8 +9773,16 @@
           <t>₹20.00</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
-      <c r="E253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F253" t="inlineStr">
         <is>
           <t>Oct 24 2024</t>
@@ -9464,10 +9960,14 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F258" t="inlineStr">
         <is>
           <t>Oct 20 2024</t>
@@ -9534,10 +10034,14 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F260" t="inlineStr">
         <is>
           <t>Oct 16 2024</t>
@@ -9787,8 +10291,16 @@
           <t>₹20.00</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F267" t="inlineStr">
         <is>
           <t>Oct 8 2024</t>
@@ -9818,10 +10330,14 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX0572</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX0572</t>
+        </is>
+      </c>
       <c r="F268" t="inlineStr">
         <is>
           <t>Oct 7 2024</t>
@@ -9849,8 +10365,16 @@
           <t>₹1.00</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr"/>
-      <c r="E269" t="inlineStr"/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
           <t>Oct 7 2024</t>
@@ -9915,8 +10439,16 @@
           <t>₹1.00</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr"/>
-      <c r="E271" t="inlineStr"/>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F271" t="inlineStr">
         <is>
           <t>Sep 18 2024</t>
@@ -9944,8 +10476,16 @@
           <t>₹1.00</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr"/>
-      <c r="E272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F272" t="inlineStr">
         <is>
           <t>Jul 31 2024</t>
@@ -10052,7 +10592,11 @@
           <t>to MOHD SUHAIL</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F275" t="inlineStr">
         <is>
           <t>Jul 7 2024</t>
@@ -10082,10 +10626,14 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F276" t="inlineStr">
         <is>
           <t>Jun 30 2024</t>
@@ -10226,10 +10774,14 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F280" t="inlineStr">
         <is>
           <t>Jun 25 2024</t>
@@ -10592,10 +11144,14 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F290" t="inlineStr">
         <is>
           <t>Jun 13 2024</t>
@@ -10662,10 +11218,14 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F292" t="inlineStr">
         <is>
           <t>Jun 12 2024</t>
@@ -10843,10 +11403,14 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F297" t="inlineStr">
         <is>
           <t>Jun 10 2024</t>
@@ -10913,10 +11477,14 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F299" t="inlineStr">
         <is>
           <t>Jun 7 2024</t>
@@ -11020,10 +11588,14 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F302" t="inlineStr">
         <is>
           <t>Jun 3 2024</t>
@@ -11907,7 +12479,11 @@
           <t>to Jio Prepaid Recharges</t>
         </is>
       </c>
-      <c r="E326" t="inlineStr"/>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F326" t="inlineStr">
         <is>
           <t>May 26 2024</t>
@@ -11940,7 +12516,11 @@
           <t>to Jio Prepaid Recharges</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr"/>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F327" t="inlineStr">
         <is>
           <t>May 26 2024</t>
@@ -11970,10 +12550,14 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F328" t="inlineStr">
         <is>
           <t>May 25 2024</t>
@@ -12077,10 +12661,14 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F331" t="inlineStr">
         <is>
           <t>May 24 2024</t>
@@ -12110,10 +12698,14 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F332" t="inlineStr">
         <is>
           <t>May 24 2024</t>
@@ -12328,10 +12920,14 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F338" t="inlineStr">
         <is>
           <t>May 23 2024</t>
@@ -12620,10 +13216,14 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F346" t="inlineStr">
         <is>
           <t>May 22 2024</t>
@@ -12653,10 +13253,14 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F347" t="inlineStr">
         <is>
           <t>May 22 2024</t>
@@ -12908,10 +13512,14 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F354" t="inlineStr">
         <is>
           <t>May 20 2024</t>
@@ -12978,10 +13586,14 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F356" t="inlineStr">
         <is>
           <t>May 18 2024</t>
@@ -13011,10 +13623,14 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr">
         <is>
           <t>May 18 2024</t>
@@ -13118,10 +13734,14 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F360" t="inlineStr">
         <is>
           <t>May 17 2024</t>
@@ -13188,10 +13808,14 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F362" t="inlineStr">
         <is>
           <t>May 16 2024</t>
@@ -13258,10 +13882,14 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F364" t="inlineStr">
         <is>
           <t>May 15 2024</t>
@@ -13291,10 +13919,14 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F365" t="inlineStr">
         <is>
           <t>May 15 2024</t>
@@ -13879,10 +14511,14 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr">
         <is>
           <t>May 9 2024</t>
@@ -14134,10 +14770,14 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E388" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F388" t="inlineStr">
         <is>
           <t>May 6 2024</t>
@@ -14204,10 +14844,14 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E390" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F390" t="inlineStr">
         <is>
           <t>May 6 2024</t>
@@ -14792,10 +15436,14 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F406" t="inlineStr">
         <is>
           <t>Apr 28 2024</t>
@@ -15047,10 +15695,14 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F413" t="inlineStr">
         <is>
           <t>Apr 26 2024</t>
@@ -15154,10 +15806,14 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F416" t="inlineStr">
         <is>
           <t>Apr 23 2024</t>
@@ -15187,10 +15843,14 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F417" t="inlineStr">
         <is>
           <t>Apr 22 2024</t>
@@ -15220,10 +15880,14 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F418" t="inlineStr">
         <is>
           <t>Apr 21 2024</t>
@@ -15512,10 +16176,14 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F426" t="inlineStr">
         <is>
           <t>Apr 15 2024</t>
@@ -15545,10 +16213,14 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E427" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F427" t="inlineStr">
         <is>
           <t>Apr 15 2024</t>
@@ -15800,10 +16472,14 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E434" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F434" t="inlineStr">
         <is>
           <t>Apr 13 2024</t>
@@ -16425,10 +17101,14 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E451" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F451" t="inlineStr">
         <is>
           <t>Apr 6 2024</t>
@@ -16456,8 +17136,16 @@
           <t>₹50.00</t>
         </is>
       </c>
-      <c r="D452" t="inlineStr"/>
-      <c r="E452" t="inlineStr"/>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F452" t="inlineStr">
         <is>
           <t>Apr 6 2024</t>
@@ -16672,10 +17360,14 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E458" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F458" t="inlineStr">
         <is>
           <t>Apr 1 2024</t>
@@ -16705,10 +17397,14 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E459" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F459" t="inlineStr">
         <is>
           <t>Apr 1 2024</t>
@@ -16736,8 +17432,16 @@
           <t>₹30.00</t>
         </is>
       </c>
-      <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr"/>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F460" t="inlineStr">
         <is>
           <t>Apr 1 2024</t>
@@ -16765,8 +17469,16 @@
           <t>₹30.00</t>
         </is>
       </c>
-      <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr"/>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F461" t="inlineStr">
         <is>
           <t>Apr 1 2024</t>
@@ -16873,7 +17585,11 @@
           <t>to Mohammed Azad</t>
         </is>
       </c>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F464" t="inlineStr">
         <is>
           <t>Mar 31 2024</t>
@@ -17125,10 +17841,14 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E471" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F471" t="inlineStr">
         <is>
           <t>Mar 30 2024</t>
@@ -17158,10 +17878,14 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F472" t="inlineStr">
         <is>
           <t>Mar 29 2024</t>
@@ -17302,10 +18026,14 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E476" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F476" t="inlineStr">
         <is>
           <t>Mar 28 2024</t>
@@ -17446,10 +18174,14 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E480" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F480" t="inlineStr">
         <is>
           <t>Mar 27 2024</t>
@@ -17553,10 +18285,14 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E483" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F483" t="inlineStr">
         <is>
           <t>Mar 27 2024</t>
@@ -17586,10 +18322,14 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F484" t="inlineStr">
         <is>
           <t>Mar 26 2024</t>
@@ -17693,10 +18433,14 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E487" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F487" t="inlineStr">
         <is>
           <t>Mar 26 2024</t>
@@ -17837,10 +18581,14 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E491" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F491" t="inlineStr">
         <is>
           <t>Mar 26 2024</t>
@@ -17870,10 +18618,14 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E492" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr">
         <is>
           <t>Mar 26 2024</t>
@@ -17903,10 +18655,14 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E493" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr">
         <is>
           <t>Mar 25 2024</t>
@@ -18010,10 +18766,14 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E496" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr">
         <is>
           <t>Mar 25 2024</t>
@@ -18117,10 +18877,14 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F499" t="inlineStr">
         <is>
           <t>Mar 25 2024</t>
@@ -18224,10 +18988,14 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E502" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F502" t="inlineStr">
         <is>
           <t>Mar 25 2024</t>
@@ -18257,10 +19025,14 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E503" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F503" t="inlineStr">
         <is>
           <t>Mar 25 2024</t>
@@ -18441,7 +19213,11 @@
           <t>to OYO Hotels</t>
         </is>
       </c>
-      <c r="E508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F508" t="inlineStr">
         <is>
           <t>Mar 24 2024</t>
@@ -18619,10 +19395,14 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E513" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F513" t="inlineStr">
         <is>
           <t>Mar 24 2024</t>
@@ -18652,10 +19432,14 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr">
         <is>
           <t>Mar 24 2024</t>
@@ -18907,10 +19691,14 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E521" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F521" t="inlineStr">
         <is>
           <t>Mar 24 2024</t>
@@ -19125,10 +19913,14 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E527" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F527" t="inlineStr">
         <is>
           <t>Mar 23 2024</t>
@@ -19343,10 +20135,14 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F533" t="inlineStr">
         <is>
           <t>Mar 9 2024</t>
@@ -19413,10 +20209,14 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F535" t="inlineStr">
         <is>
           <t>Feb 25 2024</t>
@@ -19483,10 +20283,14 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F537" t="inlineStr">
         <is>
           <t>Feb 14 2024</t>
@@ -19923,10 +20727,14 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E549" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F549" t="inlineStr">
         <is>
           <t>Jan 29 2024</t>
@@ -20104,10 +20912,14 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E554" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F554" t="inlineStr">
         <is>
           <t>Jan 28 2024</t>
@@ -20174,10 +20986,14 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F556" t="inlineStr">
         <is>
           <t>Jan 28 2024</t>
@@ -20281,10 +21097,14 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F559" t="inlineStr">
         <is>
           <t>Jan 24 2024</t>
@@ -20388,10 +21208,14 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E562" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F562" t="inlineStr">
         <is>
           <t>Jan 20 2024</t>
@@ -20421,10 +21245,14 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E563" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F563" t="inlineStr">
         <is>
           <t>Jan 20 2024</t>
@@ -20454,10 +21282,14 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F564" t="inlineStr">
         <is>
           <t>Jan 19 2024</t>
@@ -20564,7 +21396,11 @@
           <t>to GULFAM SON OF YAMIN</t>
         </is>
       </c>
-      <c r="E567" t="inlineStr"/>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F567" t="inlineStr">
         <is>
           <t>Jan 18 2024</t>
@@ -20779,10 +21615,14 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F573" t="inlineStr">
         <is>
           <t>Dec 29 2023</t>
@@ -20812,10 +21652,14 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E574" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F574" t="inlineStr">
         <is>
           <t>Dec 29 2023</t>
@@ -20843,8 +21687,16 @@
           <t>₹1120.00</t>
         </is>
       </c>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F575" t="inlineStr">
         <is>
           <t>Dec 29 2023</t>
@@ -20874,10 +21726,14 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E576" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F576" t="inlineStr">
         <is>
           <t>Dec 27 2023</t>
@@ -21055,10 +21911,14 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F581" t="inlineStr">
         <is>
           <t>Nov 16 2023</t>
@@ -21125,10 +21985,14 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F583" t="inlineStr">
         <is>
           <t>Nov 15 2023</t>
@@ -21269,10 +22133,14 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F587" t="inlineStr">
         <is>
           <t>Nov 9 2023</t>
@@ -21339,10 +22207,14 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F589" t="inlineStr">
         <is>
           <t>Nov 3 2023</t>
@@ -21372,10 +22244,14 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F590" t="inlineStr">
         <is>
           <t>Nov 3 2023</t>
@@ -21479,10 +22355,14 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F593" t="inlineStr">
         <is>
           <t>Oct 30 2023</t>
@@ -21586,10 +22466,14 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F596" t="inlineStr">
         <is>
           <t>Oct 27 2023</t>
@@ -21839,8 +22723,16 @@
           <t>₹40.00</t>
         </is>
       </c>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F603" t="inlineStr">
         <is>
           <t>Oct 17 2023</t>
@@ -21944,10 +22836,14 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F606" t="inlineStr">
         <is>
           <t>Sep 12 2023</t>
@@ -21977,10 +22873,14 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F607" t="inlineStr">
         <is>
           <t>Sep 12 2023</t>
@@ -22010,10 +22910,14 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F608" t="inlineStr">
         <is>
           <t>Aug 4 2023</t>
@@ -22043,10 +22947,14 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F609" t="inlineStr">
         <is>
           <t>Aug 2 2023</t>
@@ -22116,7 +23024,11 @@
           <t>to Jio Prepaid</t>
         </is>
       </c>
-      <c r="E611" t="inlineStr"/>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F611" t="inlineStr">
         <is>
           <t>Aug 1 2023</t>
@@ -22146,10 +23058,14 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F612" t="inlineStr">
         <is>
           <t>Jul 31 2023</t>
@@ -22364,10 +23280,14 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E618" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F618" t="inlineStr">
         <is>
           <t>Jul 22 2023</t>
@@ -22397,10 +23317,14 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F619" t="inlineStr">
         <is>
           <t>Jul 22 2023</t>
@@ -22430,10 +23354,14 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F620" t="inlineStr">
         <is>
           <t>Jul 22 2023</t>
@@ -22463,10 +23391,14 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F621" t="inlineStr">
         <is>
           <t>May 10 2023</t>
@@ -22533,10 +23465,14 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F623" t="inlineStr">
         <is>
           <t>May 2 2023</t>
@@ -22973,10 +23909,14 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F635" t="inlineStr">
         <is>
           <t>Apr 20 2023</t>
@@ -23339,10 +24279,14 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E645" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F645" t="inlineStr">
         <is>
           <t>Apr 12 2023</t>
@@ -23520,10 +24464,14 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr">
         <is>
           <t>Apr 11 2023</t>
@@ -23701,10 +24649,14 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E655" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F655" t="inlineStr">
         <is>
           <t>Apr 3 2023</t>
@@ -23732,8 +24684,16 @@
           <t>₹100.00</t>
         </is>
       </c>
-      <c r="D656" t="inlineStr"/>
-      <c r="E656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F656" t="inlineStr">
         <is>
           <t>Mar 26 2023</t>
@@ -23763,10 +24723,14 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E657" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F657" t="inlineStr">
         <is>
           <t>Mar 22 2023</t>
@@ -23794,8 +24758,16 @@
           <t>₹1.00</t>
         </is>
       </c>
-      <c r="D658" t="inlineStr"/>
-      <c r="E658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr">
         <is>
           <t>Mar 16 2023</t>
@@ -23825,10 +24797,14 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>to using Bank Account XXXXXX1552</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr"/>
+          <t>to Unknown</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>using Bank Account XXXXXX1552</t>
+        </is>
+      </c>
       <c r="F659" t="inlineStr">
         <is>
           <t>Mar 16 2023</t>
@@ -23856,8 +24832,16 @@
           <t>₹1.00</t>
         </is>
       </c>
-      <c r="D660" t="inlineStr"/>
-      <c r="E660" t="inlineStr"/>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>from Unknown</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="F660" t="inlineStr">
         <is>
           <t>Feb 17 2023</t>
